--- a/simulation_data/one_step_algorithm/1s_error_level_13_percent_water_1.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_13_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.2487986305171</v>
+        <v>89.87579370379933</v>
       </c>
       <c r="D2" t="n">
-        <v>1.732887689252266</v>
+        <v>1.796958797677829</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.91517136945983</v>
+        <v>88.85242773924364</v>
       </c>
       <c r="D3" t="n">
-        <v>1.668249266499763</v>
+        <v>1.666348651423978</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.30061296767781</v>
+        <v>88.08632144151126</v>
       </c>
       <c r="D4" t="n">
-        <v>1.415083428383725</v>
+        <v>2.946560569567183</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.90869760208535</v>
+        <v>86.87025204630177</v>
       </c>
       <c r="D5" t="n">
-        <v>1.586388030634644</v>
+        <v>1.607152563217675</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.18562837129377</v>
+        <v>86.19649342448916</v>
       </c>
       <c r="D6" t="n">
-        <v>2.917622875357209</v>
+        <v>1.571066933006063</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.05836096860223</v>
+        <v>84.94584786933075</v>
       </c>
       <c r="D7" t="n">
-        <v>1.711222444131889</v>
+        <v>1.651345579096812</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.93047536264859</v>
+        <v>84.00930916026695</v>
       </c>
       <c r="D8" t="n">
-        <v>1.72686209401618</v>
+        <v>1.421623280410865</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.98362458498006</v>
+        <v>82.93031447087105</v>
       </c>
       <c r="D9" t="n">
-        <v>1.736507119016297</v>
+        <v>1.665652122746511</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.62571347779186</v>
+        <v>81.77897039322725</v>
       </c>
       <c r="D10" t="n">
-        <v>1.853531853236277</v>
+        <v>1.606136764216123</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.86595692883158</v>
+        <v>81.11713400385099</v>
       </c>
       <c r="D11" t="n">
-        <v>1.768679896315092</v>
+        <v>3.346765944827173</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.08218832985428</v>
+        <v>80.17231364236582</v>
       </c>
       <c r="D12" t="n">
-        <v>1.563770586533636</v>
+        <v>1.562846132623768</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.20685214420163</v>
+        <v>78.95755631435914</v>
       </c>
       <c r="D13" t="n">
-        <v>1.438891987837547</v>
+        <v>1.659387774036798</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.01218277745006</v>
+        <v>78.01824095527368</v>
       </c>
       <c r="D14" t="n">
-        <v>1.777446831165686</v>
+        <v>1.800886138769422</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.0345888915846</v>
+        <v>76.85770987343093</v>
       </c>
       <c r="D15" t="n">
-        <v>1.607067351620439</v>
+        <v>1.458283099202907</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.88678632576169</v>
+        <v>76.09164038076274</v>
       </c>
       <c r="D16" t="n">
-        <v>1.335207729076957</v>
+        <v>1.638407697792932</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.09843116217669</v>
+        <v>75.0734866115361</v>
       </c>
       <c r="D17" t="n">
-        <v>1.699640002402552</v>
+        <v>1.758896675517934</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.41763289399738</v>
+        <v>73.80374218144728</v>
       </c>
       <c r="D18" t="n">
-        <v>3.411296909096767</v>
+        <v>1.471643419263237</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.25780472256945</v>
+        <v>72.98991382739553</v>
       </c>
       <c r="D19" t="n">
-        <v>1.582421617129197</v>
+        <v>1.699253243871866</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.14524213877348</v>
+        <v>72.22112401772452</v>
       </c>
       <c r="D20" t="n">
-        <v>1.744037633077198</v>
+        <v>1.577078939347504</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.24306002887083</v>
+        <v>71.12545609485753</v>
       </c>
       <c r="D21" t="n">
-        <v>1.666050067516484</v>
+        <v>1.975912136342292</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.95578419502132</v>
+        <v>70.11436001088904</v>
       </c>
       <c r="D22" t="n">
-        <v>1.678951298310267</v>
+        <v>1.648045793067407</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.92831221911712</v>
+        <v>68.69083682190964</v>
       </c>
       <c r="D23" t="n">
-        <v>1.407411389950574</v>
+        <v>1.559679037778046</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.22081270304882</v>
+        <v>67.90907009493829</v>
       </c>
       <c r="D24" t="n">
-        <v>3.8363197306367</v>
+        <v>1.714691676894607</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.67825385808241</v>
+        <v>67.20269623923356</v>
       </c>
       <c r="D25" t="n">
-        <v>1.526104689963645</v>
+        <v>3.709514804599591</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.16906403766028</v>
+        <v>65.78090372393704</v>
       </c>
       <c r="D26" t="n">
-        <v>1.808382847184196</v>
+        <v>1.692297245659769</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.2975304545544</v>
+        <v>65.08318902242797</v>
       </c>
       <c r="D27" t="n">
-        <v>1.708914574161901</v>
+        <v>1.571564103358213</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.22223509509102</v>
+        <v>63.95628562321761</v>
       </c>
       <c r="D28" t="n">
-        <v>3.843895506052823</v>
+        <v>1.540646198056926</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.83309706161803</v>
+        <v>63.00078066732586</v>
       </c>
       <c r="D29" t="n">
-        <v>1.86239434547812</v>
+        <v>1.522135379419463</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.26803406821474</v>
+        <v>61.88781231555487</v>
       </c>
       <c r="D30" t="n">
-        <v>1.535088803470294</v>
+        <v>1.578112058443168</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.01843418011461</v>
+        <v>60.89212720300181</v>
       </c>
       <c r="D31" t="n">
-        <v>1.678555224586379</v>
+        <v>1.783856190101421</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.55922722051526</v>
+        <v>59.75649959862087</v>
       </c>
       <c r="D32" t="n">
-        <v>1.628801549126819</v>
+        <v>1.513564205076597</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.95623600116148</v>
+        <v>59.8045248805718</v>
       </c>
       <c r="D33" t="n">
-        <v>1.654663121223873</v>
+        <v>5.414905427029531</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.9321520236079</v>
+        <v>57.81459278232917</v>
       </c>
       <c r="D34" t="n">
-        <v>1.688248540156731</v>
+        <v>1.536192525854574</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.08525149787511</v>
+        <v>56.95521338298883</v>
       </c>
       <c r="D35" t="n">
-        <v>1.587456626519968</v>
+        <v>1.67326030742895</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.19288081497042</v>
+        <v>55.86195527128234</v>
       </c>
       <c r="D36" t="n">
-        <v>1.746995997789235</v>
+        <v>1.81108163586444</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.78382910515458</v>
+        <v>55.09623982940577</v>
       </c>
       <c r="D37" t="n">
-        <v>1.437422177625923</v>
+        <v>1.557863055433495</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.20207830536891</v>
+        <v>53.84440223164451</v>
       </c>
       <c r="D38" t="n">
-        <v>1.657912068591169</v>
+        <v>1.812622210189167</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.97264897423197</v>
+        <v>53.29878730582428</v>
       </c>
       <c r="D39" t="n">
-        <v>1.790616702553177</v>
+        <v>1.414436322646196</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.0985475254078</v>
+        <v>52.08205367268663</v>
       </c>
       <c r="D40" t="n">
-        <v>1.405338769307692</v>
+        <v>1.575461935316152</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.98155380497812</v>
+        <v>51.29467513244153</v>
       </c>
       <c r="D41" t="n">
-        <v>1.777354526594457</v>
+        <v>1.653312261764227</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.5738174540658</v>
+        <v>50.23984031672314</v>
       </c>
       <c r="D42" t="n">
-        <v>1.467873452922418</v>
+        <v>1.668217703828302</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.8477673156711</v>
+        <v>48.81826598666283</v>
       </c>
       <c r="D43" t="n">
-        <v>1.579403363567121</v>
+        <v>1.504742001684139</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.92713590591273</v>
+        <v>48.05828948847596</v>
       </c>
       <c r="D44" t="n">
-        <v>1.438760921671178</v>
+        <v>1.534399387379304</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.78586028427514</v>
+        <v>47.07217325102442</v>
       </c>
       <c r="D45" t="n">
-        <v>1.586810285853131</v>
+        <v>1.444524739692728</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.1813855485284</v>
+        <v>46.07239339016085</v>
       </c>
       <c r="D46" t="n">
-        <v>1.587824437472852</v>
+        <v>1.483679444609245</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.05434089297982</v>
+        <v>45.24109706783187</v>
       </c>
       <c r="D47" t="n">
-        <v>1.688576596068286</v>
+        <v>1.661971487214206</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.84726453691759</v>
+        <v>43.98253827124272</v>
       </c>
       <c r="D48" t="n">
-        <v>1.682907039012633</v>
+        <v>1.430640616208462</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.24571716238275</v>
+        <v>42.98353047821291</v>
       </c>
       <c r="D49" t="n">
-        <v>1.697819696157554</v>
+        <v>1.585152021825833</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.84154623503505</v>
+        <v>41.983109193415</v>
       </c>
       <c r="D50" t="n">
-        <v>1.545107220719888</v>
+        <v>1.456959785895704</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.01400408106429</v>
+        <v>41.02484677602857</v>
       </c>
       <c r="D51" t="n">
-        <v>1.657259310788002</v>
+        <v>1.655329074970492</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.95210104162838</v>
+        <v>40.04607252226165</v>
       </c>
       <c r="D52" t="n">
-        <v>1.536597050552995</v>
+        <v>1.520360005442445</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.13682472918092</v>
+        <v>38.74776945672021</v>
       </c>
       <c r="D53" t="n">
-        <v>1.526449991758141</v>
+        <v>1.428045354033788</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.97450019512355</v>
+        <v>38.14765438841074</v>
       </c>
       <c r="D54" t="n">
-        <v>1.86163907310128</v>
+        <v>1.567059792496364</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.9979819815204</v>
+        <v>36.70377101893652</v>
       </c>
       <c r="D55" t="n">
-        <v>1.54474229498736</v>
+        <v>1.522419907300552</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.13966220285243</v>
+        <v>36.06721635628783</v>
       </c>
       <c r="D56" t="n">
-        <v>1.513144970381176</v>
+        <v>1.522362593407077</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.19897256193671</v>
+        <v>34.79121785953025</v>
       </c>
       <c r="D57" t="n">
-        <v>1.527880498547771</v>
+        <v>1.479589825367357</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.87576529772262</v>
+        <v>33.97895895151855</v>
       </c>
       <c r="D58" t="n">
-        <v>1.597804148441343</v>
+        <v>1.482947233205784</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.74506726986706</v>
+        <v>33.10092801097566</v>
       </c>
       <c r="D59" t="n">
-        <v>1.602055992341815</v>
+        <v>1.502736436594513</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.91663248308316</v>
+        <v>31.88221858298697</v>
       </c>
       <c r="D60" t="n">
-        <v>1.731519487783382</v>
+        <v>1.541430451744885</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.25923311288541</v>
+        <v>30.73532167448999</v>
       </c>
       <c r="D61" t="n">
-        <v>1.449109134544662</v>
+        <v>1.535627557981934</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.03283060808172</v>
+        <v>29.88995261883801</v>
       </c>
       <c r="D62" t="n">
-        <v>1.434241515372654</v>
+        <v>1.743026311431423</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.93654209228307</v>
+        <v>28.81220702315782</v>
       </c>
       <c r="D63" t="n">
-        <v>1.639916076302252</v>
+        <v>1.419682211824586</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.93231832609121</v>
+        <v>28.05563749236405</v>
       </c>
       <c r="D64" t="n">
-        <v>1.576387234024417</v>
+        <v>1.36687090903547</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.84086753655123</v>
+        <v>27.25173621135393</v>
       </c>
       <c r="D65" t="n">
-        <v>1.674431500603515</v>
+        <v>1.579158855053542</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.01800008803575</v>
+        <v>25.91350591465616</v>
       </c>
       <c r="D66" t="n">
-        <v>1.460734921887215</v>
+        <v>1.639850433783993</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.03891001668351</v>
+        <v>24.55975155852222</v>
       </c>
       <c r="D67" t="n">
-        <v>1.61479783583449</v>
+        <v>1.605900239780513</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.10284801100432</v>
+        <v>24.04748335717508</v>
       </c>
       <c r="D68" t="n">
-        <v>1.730941216891189</v>
+        <v>1.331206219317463</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.11469682969867</v>
+        <v>23.09449275129255</v>
       </c>
       <c r="D69" t="n">
-        <v>1.648978821031092</v>
+        <v>1.61937656253384</v>
       </c>
     </row>
   </sheetData>
